--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/BG 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/BG 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\AHLE parameter tables for subnational divisions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1D043-CCA9-4F45-808F-9943E01941C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938C310-32BA-4D53-BF7F-F30448F6706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{7B09E95E-6D5F-461A-A5DC-5B71F2D22658}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,6 +80,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -93,7 +95,7 @@
     <author>WT</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2F263E43-F915-4137-85CF-5A81894CE5E8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{567AD433-C602-4793-AF56-C8F6FFFDC5B4}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{EF78F4E6-039A-B045-8B9B-D365EA49AFBB}">
+    <comment ref="E17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{197DA58C-0E1F-4642-9F9C-2F0DE63C34AF}">
+    <comment ref="O17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -218,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{F629E569-BEC6-44AB-8A17-99FA561689CD}">
+    <comment ref="B21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{DE325A39-7F03-4001-A61E-BC0056AFEC89}">
+    <comment ref="B27" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{91F2D058-84AE-4181-B1E8-4C372CE77CEA}">
+    <comment ref="C43" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -290,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C44" authorId="1" shapeId="0" xr:uid="{5CE6EF66-611A-4714-A013-6A8C5D13A084}">
+    <comment ref="C44" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{B8AC189D-A071-42A5-B581-B1F819D42AD9}">
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{8F661D32-F8E3-4020-9B05-FF924A9DEA48}">
+    <comment ref="A55" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{E0F57D87-D490-A54E-BF74-50CFE78F96E7}">
+    <comment ref="C61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{9CC69C53-3AF8-164C-9791-D62AE67A6E71}">
+    <comment ref="D61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -428,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{D7DB8497-0070-9242-A38F-B6C1B02B9C4C}">
+    <comment ref="E61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{8681758D-DB32-814F-BE7E-2E5CEB3799E0}">
+    <comment ref="F61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{3DA8DB71-74B9-6749-B8AA-8DBEF5D14887}">
+    <comment ref="G61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -527,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{E9281452-B7CE-0A43-869E-7E88B7B5D10F}">
+    <comment ref="H61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{AB5D3590-E365-0D4E-B750-8A82ADD944ED}">
+    <comment ref="I61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -593,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{9D3FEF81-BEDF-BF4C-ACEB-A21E1ECCCF94}">
+    <comment ref="J61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -626,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{B531BFC8-06AD-1A4D-9758-3C71FBFF8F58}">
+    <comment ref="K61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -659,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{ACC72A40-72C1-E64B-A41A-A258407DBA9B}">
+    <comment ref="L61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -692,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{D421B0EE-8284-474D-A27C-CA894278DEBE}">
+    <comment ref="M61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -725,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{4AFBBDD4-B71A-A547-8139-A70B50E141DF}">
+    <comment ref="N61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -758,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{8B1C245A-AAD0-104A-B1EB-206E44EB1382}">
+    <comment ref="O61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -791,7 +793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{582C5344-82DE-FF44-8DA1-9E27F974436C}">
+    <comment ref="P61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -824,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{2EBD08FA-9B59-4A47-A9D8-7A818DB89D75}">
+    <comment ref="Q61" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -857,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{4649956B-35AA-42BC-8439-9A6FB7704FD9}">
+    <comment ref="A65" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -881,7 +883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C124" authorId="1" shapeId="0" xr:uid="{F2192F06-917C-43E1-8F78-5AE86D2C8D71}">
+    <comment ref="C124" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -905,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{279ED60C-74BD-4DC3-B903-A46A359E1FA9}">
+    <comment ref="A133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -930,7 +932,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{1ACE5722-BBE3-4795-A4C1-677C921591FB}">
+    <comment ref="C133" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1633,19 +1635,19 @@
     <t>draft animal</t>
   </si>
   <si>
-    <t>rpert(10000, 0,49,0.49,0.49)</t>
-  </si>
-  <si>
     <t>rpert(10000, 1.38,1.38, 1.38)</t>
   </si>
   <si>
+    <t>rpert(10000, 0.49,0.49,0.49)</t>
+  </si>
+  <si>
     <t>rpert(10000, (920.52/12), (920.52/12), (920.52/12))</t>
   </si>
   <si>
-    <t>rpert(10000, (2.19*12.5*0.09515), (9*12.5*0.09515), (5.4*12.5*0.09515))</t>
-  </si>
-  <si>
-    <t>rpert(10000, (6000), (26750), (15591))</t>
+    <t>rpert(10000, (2675), (15591), (6000))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (2.19*12.5*0.9515), (9*12.5*0.9515), (5.4*12.5*0.9515))</t>
   </si>
 </sst>
 </file>
@@ -2253,11 +2255,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE79AB-593E-49D8-BC0E-644D5608E970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="9" topLeftCell="G70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="9" topLeftCell="G60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
       <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
@@ -2267,9 +2269,9 @@
   <cols>
     <col min="1" max="1" width="23.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" style="14" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" style="14" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="14" customWidth="1"/>
@@ -3131,49 +3133,49 @@
         <v>80</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O17" s="24" t="s">
         <v>184</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
@@ -3413,49 +3415,49 @@
         <v>83</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>186</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>186</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -5736,7 +5738,7 @@
         <v>210</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>210</v>
@@ -5763,7 +5765,7 @@
         <v>210</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O73" s="14" t="s">
         <v>210</v>
@@ -6092,49 +6094,49 @@
         <v>106</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q84" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
@@ -8486,7 +8488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D08064-68C3-4BB0-A64D-3A606C4D4B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Ethiopia Workspace/Code and Control Files/Subnational parameters/BG 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
+++ b/Ethiopia Workspace/Code and Control Files/Subnational parameters/BG 2021_AHLE scenario parameters CATTLE scenarios only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\First Analytics\Clients\University of Liverpool\GBADs Github\GBADsLiverpool\Ethiopia Workspace\Code and Control Files\Subnational parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0938C310-32BA-4D53-BF7F-F30448F6706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E8877-7C92-4396-9807-2631A1478C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="14292" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1644,10 +1644,10 @@
     <t>rpert(10000, (920.52/12), (920.52/12), (920.52/12))</t>
   </si>
   <si>
-    <t>rpert(10000, (2675), (15591), (6000))</t>
-  </si>
-  <si>
     <t>rpert(10000, (2.19*12.5*0.9515), (9*12.5*0.9515), (5.4*12.5*0.9515))</t>
+  </si>
+  <si>
+    <t>rpert(10000, (6000), (26750), (15591))</t>
   </si>
 </sst>
 </file>
@@ -5738,7 +5738,7 @@
         <v>210</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>210</v>
@@ -5765,7 +5765,7 @@
         <v>210</v>
       </c>
       <c r="N73" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O73" s="14" t="s">
         <v>210</v>
@@ -6094,49 +6094,49 @@
         <v>106</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q84" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R84" s="18"/>
       <c r="S84" s="18"/>
